--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Lama1-Itga2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Lama1-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Lama1</t>
   </si>
   <si>
     <t>Itga2</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.583377986984735</v>
+        <v>0.027949</v>
       </c>
       <c r="H2">
-        <v>0.583377986984735</v>
+        <v>0.083847</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.04312964200344741</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.04312964200344741</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.52339298607913</v>
+        <v>4.548265666666667</v>
       </c>
       <c r="N2">
-        <v>4.52339298607913</v>
+        <v>13.644797</v>
       </c>
       <c r="O2">
-        <v>0.8081426848985791</v>
+        <v>0.8016112714390143</v>
       </c>
       <c r="P2">
-        <v>0.8081426848985791</v>
+        <v>0.8016112714390145</v>
       </c>
       <c r="Q2">
-        <v>2.638847894559712</v>
+        <v>0.1271194771176667</v>
       </c>
       <c r="R2">
-        <v>2.638847894559712</v>
+        <v>1.144075294059</v>
       </c>
       <c r="S2">
-        <v>0.8081426848985791</v>
+        <v>0.034573207163093</v>
       </c>
       <c r="T2">
-        <v>0.8081426848985791</v>
+        <v>0.034573207163093</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.583377986984735</v>
+        <v>0.027949</v>
       </c>
       <c r="H3">
-        <v>0.583377986984735</v>
+        <v>0.083847</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.04312964200344741</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.04312964200344741</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.828098121734167</v>
+        <v>0.8541786666666665</v>
       </c>
       <c r="N3">
-        <v>0.828098121734167</v>
+        <v>2.562536</v>
       </c>
       <c r="O3">
-        <v>0.1479467827618047</v>
+        <v>0.1505451302110428</v>
       </c>
       <c r="P3">
-        <v>0.1479467827618047</v>
+        <v>0.1505451302110428</v>
       </c>
       <c r="Q3">
-        <v>0.4830942152831184</v>
+        <v>0.02387343955466666</v>
       </c>
       <c r="R3">
-        <v>0.4830942152831184</v>
+        <v>0.214860955992</v>
       </c>
       <c r="S3">
-        <v>0.1479467827618047</v>
+        <v>0.00649295757136465</v>
       </c>
       <c r="T3">
-        <v>0.1479467827618047</v>
+        <v>0.006492957571364651</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,619 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.027949</v>
+      </c>
+      <c r="H4">
+        <v>0.083847</v>
+      </c>
+      <c r="I4">
+        <v>0.04312964200344741</v>
+      </c>
+      <c r="J4">
+        <v>0.04312964200344741</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.01847966666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.055439</v>
+      </c>
+      <c r="O4">
+        <v>0.003256957745674598</v>
+      </c>
+      <c r="P4">
+        <v>0.003256957745674598</v>
+      </c>
+      <c r="Q4">
+        <v>0.0005164882036666667</v>
+      </c>
+      <c r="R4">
+        <v>0.004648393833</v>
+      </c>
+      <c r="S4">
+        <v>0.0001404714215913005</v>
+      </c>
+      <c r="T4">
+        <v>0.0001404714215913006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.027949</v>
+      </c>
+      <c r="H5">
+        <v>0.083847</v>
+      </c>
+      <c r="I5">
+        <v>0.04312964200344741</v>
+      </c>
+      <c r="J5">
+        <v>0.04312964200344741</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.2529803333333334</v>
+      </c>
+      <c r="N5">
+        <v>0.7589410000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.04458664060426821</v>
+      </c>
+      <c r="P5">
+        <v>0.04458664060426822</v>
+      </c>
+      <c r="Q5">
+        <v>0.007070547336333334</v>
+      </c>
+      <c r="R5">
+        <v>0.06363492602700001</v>
+      </c>
+      <c r="S5">
+        <v>0.00192300584739846</v>
+      </c>
+      <c r="T5">
+        <v>0.00192300584739846</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.585754</v>
+      </c>
+      <c r="H6">
+        <v>1.757262</v>
+      </c>
+      <c r="I6">
+        <v>0.903909274825122</v>
+      </c>
+      <c r="J6">
+        <v>0.903909274825122</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>4.548265666666667</v>
+      </c>
+      <c r="N6">
+        <v>13.644797</v>
+      </c>
+      <c r="O6">
+        <v>0.8016112714390143</v>
+      </c>
+      <c r="P6">
+        <v>0.8016112714390145</v>
+      </c>
+      <c r="Q6">
+        <v>2.664164807312666</v>
+      </c>
+      <c r="R6">
+        <v>23.977483265814</v>
+      </c>
+      <c r="S6">
+        <v>0.7245838630580834</v>
+      </c>
+      <c r="T6">
+        <v>0.7245838630580835</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.585754</v>
+      </c>
+      <c r="H7">
+        <v>1.757262</v>
+      </c>
+      <c r="I7">
+        <v>0.903909274825122</v>
+      </c>
+      <c r="J7">
+        <v>0.903909274825122</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.8541786666666665</v>
+      </c>
+      <c r="N7">
+        <v>2.562536</v>
+      </c>
+      <c r="O7">
+        <v>0.1505451302110428</v>
+      </c>
+      <c r="P7">
+        <v>0.1505451302110428</v>
+      </c>
+      <c r="Q7">
+        <v>0.5003385707146666</v>
+      </c>
+      <c r="R7">
+        <v>4.503047136431999</v>
+      </c>
+      <c r="S7">
+        <v>0.1360791394775172</v>
+      </c>
+      <c r="T7">
+        <v>0.1360791394775173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.585754</v>
+      </c>
+      <c r="H8">
+        <v>1.757262</v>
+      </c>
+      <c r="I8">
+        <v>0.903909274825122</v>
+      </c>
+      <c r="J8">
+        <v>0.903909274825122</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.01847966666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.055439</v>
+      </c>
+      <c r="O8">
+        <v>0.003256957745674598</v>
+      </c>
+      <c r="P8">
+        <v>0.003256957745674598</v>
+      </c>
+      <c r="Q8">
+        <v>0.01082453866866667</v>
+      </c>
+      <c r="R8">
+        <v>0.09742084801800001</v>
+      </c>
+      <c r="S8">
+        <v>0.00294399431402879</v>
+      </c>
+      <c r="T8">
+        <v>0.00294399431402879</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.585754</v>
+      </c>
+      <c r="H9">
+        <v>1.757262</v>
+      </c>
+      <c r="I9">
+        <v>0.903909274825122</v>
+      </c>
+      <c r="J9">
+        <v>0.903909274825122</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.2529803333333334</v>
+      </c>
+      <c r="N9">
+        <v>0.7589410000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.04458664060426821</v>
+      </c>
+      <c r="P9">
+        <v>0.04458664060426822</v>
+      </c>
+      <c r="Q9">
+        <v>0.1481842421713334</v>
+      </c>
+      <c r="R9">
+        <v>1.333658179542</v>
+      </c>
+      <c r="S9">
+        <v>0.04030227797549241</v>
+      </c>
+      <c r="T9">
+        <v>0.04030227797549242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.583377986984735</v>
-      </c>
-      <c r="H4">
-        <v>0.583377986984735</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.245779115138495</v>
-      </c>
-      <c r="N4">
-        <v>0.245779115138495</v>
-      </c>
-      <c r="O4">
-        <v>0.04391053233961612</v>
-      </c>
-      <c r="P4">
-        <v>0.04391053233961612</v>
-      </c>
-      <c r="Q4">
-        <v>0.1433821254323846</v>
-      </c>
-      <c r="R4">
-        <v>0.1433821254323846</v>
-      </c>
-      <c r="S4">
-        <v>0.04391053233961612</v>
-      </c>
-      <c r="T4">
-        <v>0.04391053233961612</v>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.03432</v>
+      </c>
+      <c r="H10">
+        <v>0.10296</v>
+      </c>
+      <c r="I10">
+        <v>0.05296108317143064</v>
+      </c>
+      <c r="J10">
+        <v>0.05296108317143064</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.548265666666667</v>
+      </c>
+      <c r="N10">
+        <v>13.644797</v>
+      </c>
+      <c r="O10">
+        <v>0.8016112714390143</v>
+      </c>
+      <c r="P10">
+        <v>0.8016112714390145</v>
+      </c>
+      <c r="Q10">
+        <v>0.15609647768</v>
+      </c>
+      <c r="R10">
+        <v>1.40486829912</v>
+      </c>
+      <c r="S10">
+        <v>0.0424542012178379</v>
+      </c>
+      <c r="T10">
+        <v>0.0424542012178379</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.03432</v>
+      </c>
+      <c r="H11">
+        <v>0.10296</v>
+      </c>
+      <c r="I11">
+        <v>0.05296108317143064</v>
+      </c>
+      <c r="J11">
+        <v>0.05296108317143064</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.8541786666666665</v>
+      </c>
+      <c r="N11">
+        <v>2.562536</v>
+      </c>
+      <c r="O11">
+        <v>0.1505451302110428</v>
+      </c>
+      <c r="P11">
+        <v>0.1505451302110428</v>
+      </c>
+      <c r="Q11">
+        <v>0.02931541183999999</v>
+      </c>
+      <c r="R11">
+        <v>0.26383870656</v>
+      </c>
+      <c r="S11">
+        <v>0.007973033162160892</v>
+      </c>
+      <c r="T11">
+        <v>0.007973033162160893</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.03432</v>
+      </c>
+      <c r="H12">
+        <v>0.10296</v>
+      </c>
+      <c r="I12">
+        <v>0.05296108317143064</v>
+      </c>
+      <c r="J12">
+        <v>0.05296108317143064</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.01847966666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.055439</v>
+      </c>
+      <c r="O12">
+        <v>0.003256957745674598</v>
+      </c>
+      <c r="P12">
+        <v>0.003256957745674598</v>
+      </c>
+      <c r="Q12">
+        <v>0.0006342221599999999</v>
+      </c>
+      <c r="R12">
+        <v>0.00570799944</v>
+      </c>
+      <c r="S12">
+        <v>0.0001724920100545076</v>
+      </c>
+      <c r="T12">
+        <v>0.0001724920100545077</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.03432</v>
+      </c>
+      <c r="H13">
+        <v>0.10296</v>
+      </c>
+      <c r="I13">
+        <v>0.05296108317143064</v>
+      </c>
+      <c r="J13">
+        <v>0.05296108317143064</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.2529803333333334</v>
+      </c>
+      <c r="N13">
+        <v>0.7589410000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.04458664060426821</v>
+      </c>
+      <c r="P13">
+        <v>0.04458664060426822</v>
+      </c>
+      <c r="Q13">
+        <v>0.008682285039999999</v>
+      </c>
+      <c r="R13">
+        <v>0.07814056536000001</v>
+      </c>
+      <c r="S13">
+        <v>0.002361356781377335</v>
+      </c>
+      <c r="T13">
+        <v>0.002361356781377335</v>
       </c>
     </row>
   </sheetData>
